--- a/UAS_DPW.xlsx
+++ b/UAS_DPW.xlsx
@@ -134,7 +134,7 @@
     <t>https://www.instagram.com/p/CKJ0uV6gfu6/</t>
   </si>
   <si>
-    <t>https://www.instagram.com/p/CKO3QN0A1o5/</t>
+    <t>https://www.instagram.com/p/CKO84YLgyb1/</t>
   </si>
 </sst>
 </file>
@@ -247,13 +247,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -551,38 +551,38 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="7">
         <v>1</v>
       </c>
       <c r="D8" s="4"/>
@@ -599,7 +599,7 @@
       <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="7">
         <v>2</v>
       </c>
       <c r="D9" s="4"/>
@@ -616,7 +616,7 @@
       <c r="B10" s="1">
         <v>3</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="7">
         <v>3</v>
       </c>
       <c r="D10" s="4"/>
@@ -633,7 +633,7 @@
       <c r="B11" s="1">
         <v>4</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="7">
         <v>4</v>
       </c>
       <c r="D11" s="4"/>
@@ -650,7 +650,7 @@
       <c r="B12" s="1">
         <v>5</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="7">
         <v>5</v>
       </c>
       <c r="D12" s="4"/>
@@ -667,7 +667,7 @@
       <c r="B13" s="1">
         <v>6</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="7">
         <v>6</v>
       </c>
       <c r="D13" s="4"/>
@@ -684,7 +684,7 @@
       <c r="B14" s="1">
         <v>7</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="7">
         <v>7</v>
       </c>
       <c r="D14" s="4"/>
@@ -701,7 +701,7 @@
       <c r="B15" s="1">
         <v>8</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="7">
         <v>8</v>
       </c>
       <c r="D15" s="4"/>
@@ -718,7 +718,7 @@
       <c r="B16" s="1">
         <v>9</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="7">
         <v>9</v>
       </c>
       <c r="D16" s="4"/>
@@ -735,7 +735,7 @@
       <c r="B17" s="1">
         <v>10</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="7">
         <v>10</v>
       </c>
       <c r="D17" s="4"/>
@@ -752,7 +752,7 @@
       <c r="B18" s="1">
         <v>11</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="7">
         <v>11</v>
       </c>
       <c r="D18" s="4"/>
@@ -769,7 +769,7 @@
       <c r="B19" s="1">
         <v>12</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="7">
         <v>12</v>
       </c>
       <c r="D19" s="4"/>
@@ -786,7 +786,7 @@
       <c r="B20" s="1">
         <v>13</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="7">
         <v>13</v>
       </c>
       <c r="D20" s="4"/>
@@ -803,7 +803,7 @@
       <c r="B21" s="1">
         <v>14</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="7">
         <v>14</v>
       </c>
       <c r="D21" s="4"/>
@@ -820,7 +820,7 @@
       <c r="B22" s="1">
         <v>15</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="7">
         <v>15</v>
       </c>
       <c r="D22" s="4"/>
@@ -837,7 +837,7 @@
       <c r="B23" s="1">
         <v>16</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="7">
         <v>16</v>
       </c>
       <c r="D23" s="4"/>
@@ -852,36 +852,19 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
@@ -891,19 +874,36 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="G8:H8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E8" r:id="rId1"/>
